--- a/src/data/presaved_rules.xlsx
+++ b/src/data/presaved_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\POC-HSBC\hsbc\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD66B39-CE9A-4EEC-8D4E-8FDC4736AE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F859B-F760-4F20-9CE2-3BC7351B4CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="18408" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>rule</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Rule ID: 1 - Compliance of agents with regulatory standards</t>
+  </si>
+  <si>
+    <t>Rule ID</t>
   </si>
 </sst>
 </file>
@@ -420,66 +423,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/data/presaved_rules.xlsx
+++ b/src/data/presaved_rules.xlsx
@@ -1,68 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internship\POC-HSBC\hsbc\src\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F859B-F760-4F20-9CE2-3BC7351B4CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="18408" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>rule</t>
-  </si>
-  <si>
-    <t>Rule ID: 2 - PII redaction &amp; anonymization</t>
-  </si>
-  <si>
-    <t>Rule ID: 3 - Audit logs stored in append-only DB or JSON</t>
-  </si>
-  <si>
-    <t>Rule ID: 4 - Role-based SME validation loop</t>
-  </si>
-  <si>
-    <t>Rule ID: 5 - Secure deployment in on-prem or VPC environments</t>
-  </si>
-  <si>
-    <t>Rule ID: 6 - Upload PDF/email transcript, auto-generate user stories, push to Jira, store logs</t>
-  </si>
-  <si>
-    <t>Rule ID: 9 - Adherence to Ernst &amp; Young LLP's privacy policy and data usage policy</t>
-  </si>
-  <si>
-    <t>Rule ID: 10 - Assurance that the system does not practice law where prohibited by local laws</t>
-  </si>
-  <si>
-    <t>Rule ID: 7 - Secure handling of input data sources</t>
-  </si>
-  <si>
-    <t>Rule ID: 8 - Secure storage of output data sources</t>
-  </si>
-  <si>
-    <t>Rule ID: 1 - Compliance of agents with regulatory standards</t>
-  </si>
-  <si>
-    <t>Rule ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>All loan application forms and KYC documents must be securely stored.</t>
+  </si>
+  <si>
+    <t>The system must authenticate the user before allowing access to the loan application form.</t>
+  </si>
+  <si>
+    <t>The system must integrate with CIBIL to fetch the credit score of the customer.</t>
+  </si>
+  <si>
+    <t>The system must perform real-time KYC document verification using OCR and face match technology.</t>
+  </si>
+  <si>
+    <t>The system must sanction the loan and sign the e-agreement using OTP-based authentication.</t>
+  </si>
+  <si>
+    <t>The system must integrate with core banking for loan disbursement.</t>
+  </si>
+  <si>
+    <t>The system must support English and Hindi languages.</t>
+  </si>
+  <si>
+    <t>The system must only disburse loans through verified bank accounts.</t>
+  </si>
+  <si>
+    <t>The system must exclude home loan, car loan, and business loan modules.</t>
+  </si>
+  <si>
+    <t>The system must not support agent-assisted journeys for Tier 3 regions.</t>
+  </si>
+  <si>
+    <t>The system must securely store loan application forms and KYC documents.</t>
+  </si>
+  <si>
+    <t>The system must maintain a minimum uptime, excluding scheduled maintenance.</t>
+  </si>
+  <si>
+    <t>The system must ensure the customer has an Aadhaar-linked mobile number.</t>
+  </si>
+  <si>
+    <t>The system must store loan agreements and other related documents in the output file library.</t>
+  </si>
+  <si>
+    <t>The system must provide a dashboard for customers to track loan status.</t>
+  </si>
+  <si>
+    <t>The system must provide an online loan application form with Aadhaar/PAN-based prefill.</t>
+  </si>
+  <si>
+    <t>The system must use AI-based eligibility and risk assessment module.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,21 +140,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -211,7 +218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,10 +252,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,75 +427,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -498,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -506,20 +506,76 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/presaved_rules.xlsx
+++ b/src/data/presaved_rules.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surabhi Jain\Desktop\POC_HSBC_EY\hsbc\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E79D295-0744-48D3-AF2B-01F987CA14F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>S.No</t>
   </si>
@@ -22,62 +28,77 @@
     <t>Rules</t>
   </si>
   <si>
-    <t>All loan application forms and KYC documents must be securely stored.</t>
-  </si>
-  <si>
-    <t>The system must authenticate the user before allowing access to the loan application form.</t>
-  </si>
-  <si>
-    <t>The system must integrate with CIBIL to fetch the credit score of the customer.</t>
-  </si>
-  <si>
-    <t>The system must perform real-time KYC document verification using OCR and face match technology.</t>
-  </si>
-  <si>
-    <t>The system must sanction the loan and sign the e-agreement using OTP-based authentication.</t>
-  </si>
-  <si>
-    <t>The system must integrate with core banking for loan disbursement.</t>
-  </si>
-  <si>
-    <t>The system must support English and Hindi languages.</t>
-  </si>
-  <si>
-    <t>The system must only disburse loans through verified bank accounts.</t>
-  </si>
-  <si>
-    <t>The system must exclude home loan, car loan, and business loan modules.</t>
-  </si>
-  <si>
-    <t>The system must not support agent-assisted journeys for Tier 3 regions.</t>
-  </si>
-  <si>
-    <t>The system must securely store loan application forms and KYC documents.</t>
-  </si>
-  <si>
-    <t>The system must maintain a minimum uptime, excluding scheduled maintenance.</t>
-  </si>
-  <si>
-    <t>The system must ensure the customer has an Aadhaar-linked mobile number.</t>
-  </si>
-  <si>
-    <t>The system must store loan agreements and other related documents in the output file library.</t>
-  </si>
-  <si>
-    <t>The system must provide a dashboard for customers to track loan status.</t>
-  </si>
-  <si>
-    <t>The system must provide an online loan application form with Aadhaar/PAN-based prefill.</t>
-  </si>
-  <si>
-    <t>The system must use AI-based eligibility and risk assessment module.</t>
+    <t>The system must comply with Data Protection Laws (e.g., GDPR, POPIA, CCPA)</t>
+  </si>
+  <si>
+    <t>The system must comply with AML/CFT Regulations (if financial services)</t>
+  </si>
+  <si>
+    <t>The system must comply with FATCA/CRS compliance (for international account holders)</t>
+  </si>
+  <si>
+    <t>The system must comply with Local banking/insurance/tax laws relevant to the use case</t>
+  </si>
+  <si>
+    <t>The system should Encrypt all sensitive data in transit and at rest (AES-256, TLS 1.2+)</t>
+  </si>
+  <si>
+    <t>The system should Implement multi-factor authentication (MFA) for all user logins</t>
+  </si>
+  <si>
+    <t>The system should Follow the principle of least privilege for user access</t>
+  </si>
+  <si>
+    <t>The system should Log and audit all user actions on sensitive data</t>
+  </si>
+  <si>
+    <t>The system should Record and track all compliance incidents</t>
+  </si>
+  <si>
+    <t>The system should Maintain a Compliance Register for obligations</t>
+  </si>
+  <si>
+    <t>The system should Regularly review and update compliance status</t>
+  </si>
+  <si>
+    <t>The system should Include escalation matrix for reporting incidents</t>
+  </si>
+  <si>
+    <t>The system should System must produce compliance reports on demand</t>
+  </si>
+  <si>
+    <t>The system should Implement KYC/CDD checks for onboarding customers (Aadhar or PAN)</t>
+  </si>
+  <si>
+    <t>The system should Screen all transactions through sanction lists (OFAC, EU, UN)</t>
+  </si>
+  <si>
+    <t>The system should Monitor transactions using predefined red flag indicators</t>
+  </si>
+  <si>
+    <t>The system should Report suspicious transactions to regulators (e.g., STRs, CTRs)</t>
+  </si>
+  <si>
+    <t>The system should Store data only for the minimum legally required period</t>
+  </si>
+  <si>
+    <t>All third-party vendors must sign compliance &amp; data protection agreements</t>
+  </si>
+  <si>
+    <t>No data sharing without explicit regulatory/legal basis</t>
+  </si>
+  <si>
+    <t>Compliance and AML training is mandatory for all employees</t>
+  </si>
+  <si>
+    <t>Documented proof of training completion must be available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +161,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +213,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -218,6 +247,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,9 +282,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,14 +458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="89" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -458,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -466,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -474,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -482,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -490,7 +526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -498,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -506,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -514,7 +550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -522,7 +558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -530,7 +566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -538,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -546,7 +582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -554,7 +590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -562,7 +598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -570,12 +606,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
